--- a/biology/Microbiologie/Clemens_von_Pirquet/Clemens_von_Pirquet.xlsx
+++ b/biology/Microbiologie/Clemens_von_Pirquet/Clemens_von_Pirquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clemens von Pirquet est un pédiatre autrichien né le 12 mai 1874 à Vienne et mort le 28 février 1929 dans la même ville. Il est surtout connu pour ses travaux en bactériologie et en immunologie. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clemens von Pirquet naît le 12 mai 1874 à Vienne en Autriche[1], dans le quartier de Hirschstetten[2].
-Il a été mis en nomination cinq fois pour le prix Nobel de physiologie ou médecine[3].
-Le 28 février 1929, Clemens von Pirquet et sa femme, qui vivent alors à Vienne[1], se suicident en ingérant du cyanure de potassium[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clemens von Pirquet naît le 12 mai 1874 à Vienne en Autriche, dans le quartier de Hirschstetten.
+Il a été mis en nomination cinq fois pour le prix Nobel de physiologie ou médecine.
+Le 28 février 1929, Clemens von Pirquet et sa femme, qui vivent alors à Vienne, se suicident en ingérant du cyanure de potassium.
 </t>
         </is>
       </c>
